--- a/TestData/DataManager.xlsx
+++ b/TestData/DataManager.xlsx
@@ -5,24 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation_Pycharm\3DX_pythonProject\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\test-automation\feature\Code_merge\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61C02D9-F365-4A29-A91A-88A303CF07B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D2A52A-B42B-496C-BA10-86DEFAD7DD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Inputs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="document" sheetId="3" r:id="rId3"/>
+    <sheet name="transmittal" sheetId="5" r:id="rId4"/>
+    <sheet name="Placeholder" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="158">
   <si>
     <t>username</t>
   </si>
@@ -283,6 +285,221 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>DocType</t>
+  </si>
+  <si>
+    <t>Serial No</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>How Many</t>
+  </si>
+  <si>
+    <t>folder_path (for revise PH)</t>
+  </si>
+  <si>
+    <t>ASB - As-Built Drawing</t>
+  </si>
+  <si>
+    <t>PH sequence6</t>
+  </si>
+  <si>
+    <t>Region02</t>
+  </si>
+  <si>
+    <t>Organization9</t>
+  </si>
+  <si>
+    <t>AVC - Audio Visual</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>03 - Design</t>
+  </si>
+  <si>
+    <t>Original file path</t>
+  </si>
+  <si>
+    <t>D:\My Projects\Selenium\Original_upload\02-0000100082-AAE-LTR-000001_XX.pdf</t>
+  </si>
+  <si>
+    <t>MDL - BIM Model</t>
+  </si>
+  <si>
+    <t>PH_created</t>
+  </si>
+  <si>
+    <t>DAT - Data Sheet</t>
+  </si>
+  <si>
+    <t>DRG - Drawing</t>
+  </si>
+  <si>
+    <t>Document  for TRA</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Filters selection</t>
+  </si>
+  <si>
+    <t>TraType</t>
+  </si>
+  <si>
+    <t>TRAReason</t>
+  </si>
+  <si>
+    <t>TRA_Response</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Asset code</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Work Order</t>
+  </si>
+  <si>
+    <t>Design related</t>
+  </si>
+  <si>
+    <t>Info Requested</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>sraut</t>
+  </si>
+  <si>
+    <t>02-DAH-LAN-3DM-345004</t>
+  </si>
+  <si>
+    <t>Auto-created Title 1</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>RFI</t>
+  </si>
+  <si>
+    <t>IMP_ReasonForIssue</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Test Excel subject 1</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>0000100113</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>02A</t>
+  </si>
+  <si>
+    <t>Auto Info 1</t>
+  </si>
+  <si>
+    <t>Auto Message 1</t>
+  </si>
+  <si>
+    <t>tra_created</t>
+  </si>
+  <si>
+    <t>GC-TRA-000053</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ARC - Architectural</t>
+  </si>
+  <si>
+    <t>psuraneni</t>
+  </si>
+  <si>
+    <t>Test@2022</t>
+  </si>
+  <si>
+    <t>OwnedByMe</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Reason For Issue</t>
+  </si>
+  <si>
+    <t>Response Required</t>
+  </si>
+  <si>
+    <t>Transmittal Category</t>
+  </si>
+  <si>
+    <t>Work Order/Service Order</t>
+  </si>
+  <si>
+    <t>02-DAH-LAN-3DM-245004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+															Request For Information
+														</t>
+  </si>
+  <si>
+    <t>IFD - Issued for Design</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Auto-Created TRA 1</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>0000000000 - IMP Wide</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Test Message created</t>
   </si>
 </sst>
 </file>
@@ -314,7 +531,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,8 +568,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -388,12 +617,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -444,6 +706,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -727,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,14 +1422,462 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="G3" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G5" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G6" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G7" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G8" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G9" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G10" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G11" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D6D914-98E5-44BB-A609-6E43D31E8456}">
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04649D4-B85F-4770-9E36-CF59CEEA629B}">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2">
+        <v>110023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TestData/DataManager.xlsx
+++ b/TestData/DataManager.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27719"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\test-automation\feature\Code_merge\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA247C6D-192F-482F-861A-FFDC305E51F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95B6F09-035A-4160-8C1C-69A59BC9D692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5544" yWindow="0" windowWidth="17496" windowHeight="12240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -19,12 +14,28 @@
     <sheet name="transmittal" sheetId="4" r:id="rId4"/>
     <sheet name="Placeholder" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="174">
   <si>
     <t>username</t>
   </si>
@@ -59,6 +70,9 @@
     <t>aajam</t>
   </si>
   <si>
+    <t>sisane</t>
+  </si>
+  <si>
     <t>Dashboard Names</t>
   </si>
   <si>
@@ -101,6 +115,12 @@
     <t>columns</t>
   </si>
   <si>
+    <t>Annotation_Description</t>
+  </si>
+  <si>
+    <t>Annotation Comment</t>
+  </si>
+  <si>
     <t>GENERIC Dashboard</t>
   </si>
   <si>
@@ -122,13 +142,13 @@
     <t>docname1</t>
   </si>
   <si>
-    <t>02-DAH-LAN-3DM-345024</t>
+    <t>03-DAH-LAN-MDL-561001</t>
   </si>
   <si>
     <t>wf_title</t>
   </si>
   <si>
-    <t>WF created by automation</t>
+    <t>WF created by automation 3</t>
   </si>
   <si>
     <t>swf_title</t>
@@ -140,13 +160,13 @@
     <t>wf_no</t>
   </si>
   <si>
-    <t>WF-000415</t>
+    <t>WF-000371</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>General comment-2</t>
+    <t>General comment-4</t>
   </si>
   <si>
     <t>ACO</t>
@@ -161,6 +181,12 @@
     <t>Workflow No.</t>
   </si>
   <si>
+    <t>Annotation comment 6</t>
+  </si>
+  <si>
+    <t>B - Incorporate Comments - Proceed</t>
+  </si>
+  <si>
     <t>Workflow Management</t>
   </si>
   <si>
@@ -179,7 +205,7 @@
     <t>docname2</t>
   </si>
   <si>
-    <t>02-DAH-LAN-3DM-345125</t>
+    <t>02-DAH-LAN-3DM-346006</t>
   </si>
   <si>
     <t>reasonforissue</t>
@@ -197,30 +223,36 @@
     <t>swf_no</t>
   </si>
   <si>
-    <t>SWF-000486</t>
+    <t>SWF-000450</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>status_value</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>LAN</t>
-  </si>
-  <si>
-    <t>status_value</t>
-  </si>
-  <si>
     <t>Workflow Title</t>
   </si>
   <si>
+    <t>C - Revise &amp; Resubmit - Do Not Proceed</t>
+  </si>
+  <si>
+    <t>Himanshu Sharma</t>
+  </si>
+  <si>
     <t>wo_number</t>
   </si>
   <si>
-    <t>010</t>
-  </si>
-  <si>
     <t>wf_route_template</t>
   </si>
   <si>
@@ -287,6 +319,9 @@
     <t>03A - Concept Design</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>Document</t>
   </si>
   <si>
@@ -320,15 +355,14 @@
     <t>sraut</t>
   </si>
   <si>
-    <t>02-DAH-LAN-3DM-245004</t>
+    <t>02-AED-CON-DRG-110024</t>
   </si>
   <si>
     <t>Auto-created Title 1</t>
   </si>
   <si>
     <t xml:space="preserve">
-															Request For Information
-														</t>
+Request For Information</t>
   </si>
   <si>
     <t>IFD - Issued for Design</t>
@@ -346,9 +380,6 @@
     <t>0000000000 - IMP Wide</t>
   </si>
   <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>AVC - Audio Visual</t>
   </si>
   <si>
@@ -406,7 +437,10 @@
     <t>Letter Addressee</t>
   </si>
   <si>
-    <t>02-DTC-KEQ-ASB-000004</t>
+    <t>02-DAH-LAN-3DM-346010</t>
+  </si>
+  <si>
+    <t>Auto-created Title 10</t>
   </si>
   <si>
     <t>Outstanding</t>
@@ -415,25 +449,22 @@
     <t>GCD</t>
   </si>
   <si>
+    <t>IFD</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Test Excel subject 1</t>
-  </si>
-  <si>
-    <t>0000100113</t>
-  </si>
-  <si>
-    <t>024</t>
+    <t>Test TRA Excel subject 6</t>
   </si>
   <si>
     <t>02A</t>
   </si>
   <si>
-    <t>Auto Info 1</t>
-  </si>
-  <si>
-    <t>Auto Message 1</t>
+    <t>Auto Info 4</t>
+  </si>
+  <si>
+    <t>TRA Message 1</t>
   </si>
   <si>
     <t>MeetingMinutes</t>
@@ -442,13 +473,13 @@
     <t>AECOM-Khaled Ismail</t>
   </si>
   <si>
-    <t>AECOM-Werner Van Straaten</t>
+    <t>AECOM-Ian Laski</t>
   </si>
   <si>
     <t>tra_created</t>
   </si>
   <si>
-    <t>GC-RFI-000011</t>
+    <t>GC-GNC-000028</t>
   </si>
   <si>
     <t>NA</t>
@@ -493,16 +524,16 @@
     <t>ASB - As-Built Drawing</t>
   </si>
   <si>
-    <t>PH sequence6</t>
+    <t>PH Auto Title 1</t>
   </si>
   <si>
     <t>Region02</t>
   </si>
   <si>
-    <t>Organization9</t>
-  </si>
-  <si>
-    <t>009</t>
+    <t>Organization10</t>
+  </si>
+  <si>
+    <t>CON - Construction Management</t>
   </si>
   <si>
     <t>03 - Design</t>
@@ -520,32 +551,24 @@
     <t>PH_created</t>
   </si>
   <si>
+    <t>02-AEO-CON-DRG-110080</t>
+  </si>
+  <si>
     <t>DAT - Data Sheet</t>
   </si>
   <si>
     <t>DRG - Drawing</t>
-  </si>
-  <si>
-    <t>IFD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -553,9 +576,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -567,48 +603,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -620,6 +656,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -645,9 +694,29 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -668,84 +737,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -768,39 +845,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -833,9 +910,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -868,6 +962,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -929,13 +1040,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -944,6 +1048,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1008,7 +1119,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -1020,418 +1151,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.21875" style="5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{90EDC64F-D802-4D48-B339-0E9806189F63}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{6188D38E-B164-4E4F-AD97-796EF06A8591}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{DAADC297-03FB-4664-A075-FD4D9AF1AFCC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE61270-25AC-4531-A810-94CDEA517777}">
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15" style="7" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.5546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:22" ht="60.75">
+      <c r="A1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="9" t="s">
+      <c r="N1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="P1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="9" t="s">
+      <c r="R1" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="S1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="2" spans="1:22" ht="91.5">
+      <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="F2" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="G2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="H2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="J2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="K2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="L2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="M2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="N2" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="O2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="P2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="Q2" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10" t="s">
+      <c r="R2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="S2" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="T2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="U2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="V2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:22" ht="76.5">
+      <c r="A3" s="19"/>
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="G3" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="H3" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="I3" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="J3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="K3" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="L3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="M3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="10" t="s">
+      <c r="N3" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="P3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="17" t="s">
+      <c r="Q3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="R3" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="11" t="s">
+      <c r="S3" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="T3" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="U3" s="9"/>
+      <c r="V3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R4" s="11" t="s">
+    </row>
+    <row r="4" spans="1:22" ht="137.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="E4" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="F4" s="17">
+        <v>10</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="21" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="J4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="12" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="P4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="Q4" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R4" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="S4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="T4" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" ht="137.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="11" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="O5" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="Q6" s="10" t="s">
+      <c r="P5" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="8" t="s">
+      <c r="Q5" s="15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="7" t="s">
+      <c r="R5" s="16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="8" t="s">
+      <c r="S5" s="17" t="s">
         <v>86</v>
       </c>
+      <c r="T5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+    </row>
+    <row r="6" spans="1:22" ht="91.5">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+    </row>
+    <row r="12" spans="1:22" ht="60.75">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+    </row>
+    <row r="13" spans="1:22" ht="76.5">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+    </row>
+    <row r="14" spans="1:22" ht="91.5">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+    </row>
+    <row r="15" spans="1:22" ht="45.75">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1439,174 +1792,287 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF871AB-03E9-43F2-A52E-A118B685F8ED}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.88671875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="L1" s="24" t="s">
+      <c r="C1" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="24" t="s">
+      <c r="E1" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="25" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="G1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="H1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="76.5">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="25" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" s="27">
+        <v>1</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="G3" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="N3" s="25" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G5" s="25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G6" s="25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G7" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G8" s="25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G9" s="25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G10" s="25" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G11" s="25" t="s">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8" t="s">
         <v>6</v>
       </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1614,204 +2080,224 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFCEDEA-33A4-4366-977B-B20C9823B9D8}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="9"/>
       <c r="D1" s="24" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G1" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="U1" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="27">
+        <v>211102</v>
+      </c>
+      <c r="M2" s="27">
+        <v>100113</v>
+      </c>
+      <c r="N2" s="27">
+        <v>24</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="30" t="s">
+      <c r="Q2" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="30" t="s">
+      <c r="B4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M1" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="U1" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="L2" s="25">
-        <v>211102</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="N2" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R2" t="s">
-        <v>134</v>
-      </c>
-      <c r="S2" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2" t="s">
-        <v>136</v>
-      </c>
-      <c r="U2" t="s">
-        <v>137</v>
-      </c>
-      <c r="V2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="P3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T3" t="s">
-        <v>143</v>
-      </c>
-      <c r="U3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" t="s">
-        <v>146</v>
-      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1819,121 +2305,147 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC04439-4155-4E24-BD83-31478FD03C67}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>154</v>
       </c>
-      <c r="B2">
-        <v>110023</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B1" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="F1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I2">
+      <c r="J1" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="183">
+      <c r="A2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="9">
+        <v>110080</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="8">
+        <v>9</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="9">
         <v>1</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="60.75">
+      <c r="A3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
